--- a/app/src/docs/webservices/ok.xlsx
+++ b/app/src/docs/webservices/ok.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\android\Desktop\webservices\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Android\Workspace\SocialBusiness\app\src\docs\webservices\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="38">
   <si>
     <t>Login</t>
   </si>
@@ -269,6 +269,27 @@
     user_profile_picture.id: int
     comment: String
 }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">business.id: int
+title: String
+picture: String
+description: String
+price: String
+code: String
+hashtag_list: String
+discount: int (1-100)
+</t>
+  </si>
+  <si>
+    <t>Add post</t>
+  </si>
+  <si>
+    <t>business.id: int
+post.id: int</t>
+  </si>
+  <si>
+    <t>Delete post</t>
   </si>
 </sst>
 </file>
@@ -341,7 +362,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -356,6 +377,9 @@
     </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Excel Built-in Normal" xfId="1"/>
@@ -637,10 +661,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -795,6 +819,30 @@
       </c>
       <c r="D12" s="6"/>
     </row>
+    <row r="13" spans="1:4" ht="135" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="4"/>
+    </row>
+    <row r="14" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="8"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/app/src/docs/webservices/ok.xlsx
+++ b/app/src/docs/webservices/ok.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="43">
   <si>
     <t>Login</t>
   </si>
@@ -290,6 +290,39 @@
   </si>
   <si>
     <t>Delete post</t>
+  </si>
+  <si>
+    <r>
+      <t>list{
+    user.id: int
+    user_id: String</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+    user_profile_picture.id : int
+}</t>
+    </r>
+  </si>
+  <si>
+    <t>business.id: int</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Get blocked users list</t>
+  </si>
+  <si>
+    <t>user.id: int
+post.id: int
+comment: String</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Comment on post</t>
   </si>
 </sst>
 </file>
@@ -362,7 +395,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -378,6 +411,9 @@
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -661,10 +697,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -843,6 +879,30 @@
       </c>
       <c r="D14" s="8"/>
     </row>
+    <row r="15" spans="1:4" s="3" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D15" s="9"/>
+    </row>
+    <row r="16" spans="1:4" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" s="6"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/app/src/docs/webservices/ok.xlsx
+++ b/app/src/docs/webservices/ok.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="53">
   <si>
     <t>Login</t>
   </si>
@@ -324,6 +324,59 @@
   <si>
     <t xml:space="preserve"> Comment on post</t>
   </si>
+  <si>
+    <t>business.id: int
+user.id: int (user who is gonna be unblocked)</t>
+  </si>
+  <si>
+    <t>Unblock user</t>
+  </si>
+  <si>
+    <t>email: String</t>
+  </si>
+  <si>
+    <t>Forget password</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">list:{
+    user.id: int
+    user_id: String
+    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>user_profile_picture_name: String (small)
+    user_profile_picture.id: int
+}</t>
+    </r>
+  </si>
+  <si>
+    <t>Get business' followers</t>
+  </si>
+  <si>
+    <t>business.id: int
+user.id: int (user who is gonna be blocked)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Block user</t>
+  </si>
+  <si>
+    <t>list{
+    user.id: int (friend user.id)
+    user_id: string
+    user_profile_picture.id : int
+}</t>
+  </si>
+  <si>
+    <t>Get user's friend request list</t>
+  </si>
 </sst>
 </file>
 
@@ -332,7 +385,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]General"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -367,6 +420,19 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="5" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -395,7 +461,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -416,6 +482,12 @@
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Excel Built-in Normal" xfId="1"/>
@@ -697,10 +769,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20:D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -903,7 +975,73 @@
       </c>
       <c r="D16" s="6"/>
     </row>
+    <row r="17" spans="1:4" s="10" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" s="11"/>
+    </row>
+    <row r="18" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" s="6"/>
+    </row>
+    <row r="19" spans="1:4" ht="135" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D19" s="12"/>
+    </row>
+    <row r="20" spans="1:4" s="10" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D20" s="11"/>
+    </row>
+    <row r="21" spans="1:4" s="10" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D21" s="11"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B22" s="13"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/app/src/docs/webservices/ok.xlsx
+++ b/app/src/docs/webservices/ok.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="58">
   <si>
     <t>Login</t>
   </si>
@@ -376,6 +376,36 @@
   </si>
   <si>
     <t>Get user's friend request list</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">business.id:int
+user.id: int
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>rate: int (between 1 to 5)</t>
+    </r>
+  </si>
+  <si>
+    <t>Rate business</t>
+  </si>
+  <si>
+    <t>image: String</t>
+  </si>
+  <si>
+    <t>image.id:int
+image_size: int (large:1, medium:2, small:3)</t>
+  </si>
+  <si>
+    <t>download image</t>
   </si>
 </sst>
 </file>
@@ -461,7 +491,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -487,7 +517,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Excel Built-in Normal" xfId="1"/>
@@ -769,10 +798,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20:D21"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1035,10 +1064,29 @@
       </c>
       <c r="D21" s="11"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B22" s="13"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
+    <row r="22" spans="1:4" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D22" s="9"/>
+    </row>
+    <row r="23" spans="1:4" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D23" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/app/src/docs/webservices/ok.xlsx
+++ b/app/src/docs/webservices/ok.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="60">
   <si>
     <t>Login</t>
   </si>
@@ -406,6 +406,13 @@
   </si>
   <si>
     <t>download image</t>
+  </si>
+  <si>
+    <t>business.id: int
+comment.id: int</t>
+  </si>
+  <si>
+    <t>Delete comment</t>
   </si>
 </sst>
 </file>
@@ -798,10 +805,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1088,6 +1095,18 @@
       </c>
       <c r="D23" s="4"/>
     </row>
+    <row r="24" spans="1:4" s="10" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D24" s="11"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/app/src/docs/webservices/ok.xlsx
+++ b/app/src/docs/webservices/ok.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="61">
   <si>
     <t>Login</t>
   </si>
@@ -413,6 +413,9 @@
   </si>
   <si>
     <t>Delete comment</t>
+  </si>
+  <si>
+    <t>Get user's friend list</t>
   </si>
 </sst>
 </file>
@@ -805,10 +808,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D24"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1107,6 +1110,18 @@
       </c>
       <c r="D24" s="11"/>
     </row>
+    <row r="25" spans="1:4" s="10" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D25" s="11"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/app/src/docs/webservices/ok.xlsx
+++ b/app/src/docs/webservices/ok.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="61">
   <si>
     <t>Login</t>
   </si>
@@ -406,6 +406,16 @@
   </si>
   <si>
     <t>download image</t>
+  </si>
+  <si>
+    <t>business.id: int
+comment.id: int</t>
+  </si>
+  <si>
+    <t>Delete comment</t>
+  </si>
+  <si>
+    <t>Get user's friend list</t>
   </si>
 </sst>
 </file>
@@ -798,10 +808,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1088,6 +1098,30 @@
       </c>
       <c r="D23" s="4"/>
     </row>
+    <row r="24" spans="1:4" s="10" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D24" s="11"/>
+    </row>
+    <row r="25" spans="1:4" s="10" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D25" s="11"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
